--- a/data/CRP.xlsx
+++ b/data/CRP.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D75"/>
+  <dimension ref="A1:G75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -371,6 +371,21 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>Corequisites</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Concurrent</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Recommended</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
           <t>Terms Typically Offered</t>
         </is>
       </c>
@@ -393,6 +408,21 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>F</t>
         </is>
       </c>
@@ -410,10 +440,25 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CRP 201, CRP 211 or consent of instructor.</t>
+          <t>CRP 201, CRP 211 or consent of instructor.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -432,10 +477,25 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CRP 202 and CRP 204.</t>
+          <t>CRP 202 and CRP 204.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -454,12 +514,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CRP 201. Corequisite: CRP 202.</t>
+          <t>CRP 201.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>CRP 202.</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">W </t>
         </is>
       </c>
     </row>
@@ -481,6 +556,21 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>W</t>
         </is>
       </c>
@@ -503,6 +593,21 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -520,10 +625,25 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CRP 212.</t>
+          <t>CRP 212.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -542,10 +662,25 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CRP 212.</t>
+          <t>CRP 212.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -564,12 +699,27 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Completion of GE Area D1. Recommended: ES 112.</t>
+          <t>Completion of GE Area D1.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>ES 112.</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SP </t>
         </is>
       </c>
     </row>
@@ -591,6 +741,21 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>F</t>
         </is>
       </c>
@@ -613,6 +778,21 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -630,10 +810,25 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CRP 212.</t>
+          <t>CRP 212.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -657,6 +852,21 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>W</t>
         </is>
       </c>
@@ -679,6 +889,21 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>SP</t>
         </is>
       </c>
@@ -701,6 +926,21 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>W</t>
         </is>
       </c>
@@ -718,10 +958,25 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CRP 212.</t>
+          <t>CRP 212.</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -745,6 +1000,21 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>W, SP</t>
         </is>
       </c>
@@ -762,10 +1032,25 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CRP 203, CRP 213, or CRP 214.</t>
+          <t>CRP 203, CRP 213, or CRP 214.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -784,10 +1069,25 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CRP 336.</t>
+          <t>CRP 336.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -811,6 +1111,21 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -833,6 +1148,21 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -850,10 +1180,25 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CRP/NR 351.</t>
+          <t>CRP/NR 351.</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -872,10 +1217,25 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Completion of GE Area A1 with a grade of C- or better and CRP 341; or graduate standing.</t>
+          <t>Completion of GE Area A1 with a grade of C- or better and CRP 341; or graduate standing.</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -899,6 +1259,21 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>SP</t>
         </is>
       </c>
@@ -921,6 +1296,21 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
           <t>W</t>
         </is>
       </c>
@@ -943,6 +1333,21 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>F, SP</t>
         </is>
       </c>
@@ -960,10 +1365,25 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>CRP 336, CRP 341 or consent of instructor.</t>
+          <t>CRP 336, CRP 341 or consent of instructor.</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -982,10 +1402,25 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>CRP 342, CRP 410, or consent of instructor.</t>
+          <t>CRP 342, CRP 410, or consent of instructor.</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -1004,10 +1439,25 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CRP 212.</t>
+          <t>CRP 212.</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -1026,10 +1476,25 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>CRP 212 and upper division standing.</t>
+          <t>CRP 212 and upper division standing.</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -1053,6 +1518,21 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1070,12 +1550,27 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Junior standing. Recommended: CRP 334.</t>
+          <t>Junior standing.</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>CRP 334.</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F </t>
         </is>
       </c>
     </row>
@@ -1092,10 +1587,25 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>CRP 212.</t>
+          <t>CRP 212.</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -1114,10 +1624,25 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>CRP 212, senior standing, or graduate standing.</t>
+          <t>CRP 212, senior standing, or graduate standing.</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -1136,10 +1661,25 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>CRP 212 or graduate standing.</t>
+          <t>CRP 212 or graduate standing.</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -1163,6 +1703,21 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1180,12 +1735,27 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>CRP 212 or graduate standing. Recommended: CRP 336.</t>
+          <t>CRP 212 or graduate standing.</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>CRP 336.</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SP </t>
         </is>
       </c>
     </row>
@@ -1207,6 +1777,21 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
           <t>W</t>
         </is>
       </c>
@@ -1229,6 +1814,21 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1251,6 +1851,21 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1268,10 +1883,25 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>CRP 341 or graduate standing.</t>
+          <t>CRP 341 or graduate standing.</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -1290,10 +1920,25 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>CRP 201 and CRP 202, Upper division or graduate standing.</t>
+          <t>CRP 201 and CRP 202, Upper division or graduate standing.</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -1312,10 +1957,25 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>CRP 212, or graduate standing.</t>
+          <t>CRP 212, or graduate standing.</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -1334,10 +1994,25 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>CRP 216 and junior standing, or graduate standing.</t>
+          <t>CRP 216 and junior standing, or graduate standing.</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -1361,6 +2036,21 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
           <t>F</t>
         </is>
       </c>
@@ -1378,10 +2068,25 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>CRP 341, CRP 342.</t>
+          <t>CRP 341, CRP 342.</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -1400,10 +2105,25 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>CRP 410.</t>
+          <t>CRP 410.</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -1422,10 +2142,25 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>CRP 410 and senior standing.</t>
+          <t>CRP 410 and senior standing.</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -1449,6 +2184,21 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1471,6 +2221,21 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1493,6 +2258,21 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1515,6 +2295,21 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1537,6 +2332,21 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -1559,6 +2369,21 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
           <t>F</t>
         </is>
       </c>
@@ -1581,6 +2406,21 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
           <t>F</t>
         </is>
       </c>
@@ -1603,6 +2443,21 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1625,6 +2480,21 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
           <t>F</t>
         </is>
       </c>
@@ -1647,6 +2517,21 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
           <t>W</t>
         </is>
       </c>
@@ -1669,6 +2554,21 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
           <t>SP</t>
         </is>
       </c>
@@ -1691,6 +2591,21 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
           <t>W</t>
         </is>
       </c>
@@ -1708,10 +2623,25 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>CRP 501.</t>
+          <t>CRP 501.</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -1730,10 +2660,25 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>CRP 501 or consent of instructor.</t>
+          <t>CRP 501 or consent of instructor.</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -1757,6 +2702,21 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
           <t>SP</t>
         </is>
       </c>
@@ -1774,10 +2734,25 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>CRP 501 or graduate standing.</t>
+          <t>CRP 501 or graduate standing.</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -1801,6 +2776,21 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
           <t>W</t>
         </is>
       </c>
@@ -1823,6 +2813,21 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
           <t>W</t>
         </is>
       </c>
@@ -1840,10 +2845,25 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>CRP 501, CRP 525, or consent of instructor.</t>
+          <t>CRP 501, CRP 525, or consent of instructor.</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -1862,10 +2882,25 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>CRP 512 or consent of instructor.</t>
+          <t>CRP 512 or consent of instructor.</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -1884,10 +2919,25 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>CRP 552.</t>
+          <t>CRP 552.</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -1906,10 +2956,25 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>CRP 554, or consent of instructor.</t>
+          <t>CRP 554, or consent of instructor.</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -1933,6 +2998,21 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1955,6 +3035,21 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1972,10 +3067,25 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>CRP 513, and consent of the graduate program coordinator.</t>
+          <t>CRP 513, and consent of the graduate program coordinator.</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -1994,10 +3104,25 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>CRP 513, and consent of the graduate program coordinator.</t>
+          <t>CRP 513, and consent of the graduate program coordinator.</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
